--- a/_site/1-Self-Study/LBO-Model/LBO-Model.xlsx
+++ b/_site/1-Self-Study/LBO-Model/LBO-Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronkemske/Desktop/ckemske46.github.io/1-Self-Study/LBO-Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F85EFF-DC12-7A48-99A4-F35E6F41D102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BF3757-F3B3-DB4B-B1B0-71F326008C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{3C677161-EF21-A54A-996C-D3E6B4C69C5F}"/>
+    <workbookView xWindow="-38480" yWindow="-1960" windowWidth="38400" windowHeight="21100" xr2:uid="{3C677161-EF21-A54A-996C-D3E6B4C69C5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="5" r:id="rId1"/>
@@ -959,7 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661F6FC3-DAE4-E147-97C3-B31A171D4DFB}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2037,7 +2037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B872078-D7C5-BB44-A013-6EB1B33E6C2B}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
